--- a/data/trans_camb/P1402-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P1402-Edad-trans_camb.xlsx
@@ -664,7 +664,7 @@
         <v>0.01251243843819656</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>0.04234234615930303</v>
+        <v>0.04234234615930305</v>
       </c>
     </row>
     <row r="5">
@@ -675,13 +675,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-0.2031980456710007</v>
+        <v>-0.1981565217172103</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-0.401086416061964</v>
+        <v>-0.4017268462681722</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-1.071486806264165</v>
+        <v>-0.9870221530115575</v>
       </c>
       <c r="F5" s="5" t="n">
         <v>0</v>
@@ -691,13 +691,13 @@
         <v>0</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.01681643511893089</v>
+        <v>0.01475668598317812</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-0.2029918022398872</v>
+        <v>-0.3029104692351132</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-0.2046897561668601</v>
+        <v>-0.2038829921746873</v>
       </c>
     </row>
     <row r="6">
@@ -708,29 +708,29 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>1.427084384431469</v>
+        <v>1.445661686744145</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.6806625407703635</v>
+        <v>0.6936457412380801</v>
       </c>
       <c r="E6" s="5" t="n">
         <v>0</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>1.667773690524219</v>
+        <v>1.671117520436524</v>
       </c>
       <c r="G6" s="5" t="inlineStr"/>
       <c r="H6" s="5" t="n">
-        <v>1.557439945409431</v>
+        <v>1.763925987775508</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>1.050550992745409</v>
+        <v>1.095029920309039</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.4551991137232279</v>
+        <v>0.3439723792905948</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.443491079207863</v>
+        <v>0.6075618388033892</v>
       </c>
     </row>
     <row r="7">
@@ -767,7 +767,7 @@
         <v>0.122954967956153</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>0.4160821122853669</v>
+        <v>0.4160821122853671</v>
       </c>
     </row>
     <row r="8">
@@ -822,7 +822,7 @@
         <v>0.1527829996004623</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.9702137060718602</v>
+        <v>0.97021370607186</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>0.9536072258432955</v>
@@ -840,7 +840,7 @@
         <v>0.2538787633462536</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>0.3182905539972144</v>
+        <v>0.3182905539972143</v>
       </c>
     </row>
     <row r="11">
@@ -851,31 +851,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.08965815775494652</v>
+        <v>-0.02266567202640234</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-0.5636396998569634</v>
+        <v>-0.7162891292305887</v>
       </c>
       <c r="E11" s="5" t="n">
         <v>0</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-0.1211716995509421</v>
+        <v>0.02652527061780409</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-0.5140480597146105</v>
+        <v>-0.4897516918334837</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-1.159671833960694</v>
+        <v>-1.099271373317077</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.2828248066284612</v>
+        <v>0.1886815842149913</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-0.2895854654102187</v>
+        <v>-0.3012135420326169</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-0.251282910634866</v>
+        <v>-0.289398796140143</v>
       </c>
     </row>
     <row r="12">
@@ -886,31 +886,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>2.128321782471142</v>
+        <v>1.903076189215907</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.9194521410373308</v>
+        <v>0.8581674538812194</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>3.527241913448463</v>
+        <v>3.144837249630329</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>2.230481518848169</v>
+        <v>2.338889507211054</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>1.43537418732262</v>
+        <v>1.31878366413355</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.1538281375866823</v>
+        <v>0.15595158443607</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>1.812378416356295</v>
+        <v>1.739344303557725</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.7801308836456262</v>
+        <v>0.8062028889887546</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>1.388990002386866</v>
+        <v>1.309175403946189</v>
       </c>
     </row>
     <row r="13">
@@ -927,7 +927,7 @@
         <v>0.631049502071825</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>4.00733640340214</v>
+        <v>4.007336403402139</v>
       </c>
       <c r="F13" s="6" t="n">
         <v>1.979714810871137</v>
@@ -945,7 +945,7 @@
         <v>0.7208003992745668</v>
       </c>
       <c r="K13" s="6" t="n">
-        <v>0.903675263667542</v>
+        <v>0.9036752636675418</v>
       </c>
     </row>
     <row r="14">
@@ -959,19 +959,21 @@
       <c r="D14" s="6" t="inlineStr"/>
       <c r="E14" s="6" t="inlineStr"/>
       <c r="F14" s="6" t="n">
-        <v>-0.4347618169446002</v>
+        <v>-0.3193597147115951</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.8477343664712199</v>
+        <v>-0.8092418657549155</v>
       </c>
       <c r="H14" s="6" t="inlineStr"/>
       <c r="I14" s="6" t="n">
-        <v>0.08625394441905707</v>
+        <v>-0.009442211355595285</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.5656406687835016</v>
-      </c>
-      <c r="K14" s="6" t="inlineStr"/>
+        <v>-0.6971001656474352</v>
+      </c>
+      <c r="K14" s="6" t="n">
+        <v>-1</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
@@ -983,20 +985,18 @@
       <c r="C15" s="6" t="inlineStr"/>
       <c r="D15" s="6" t="inlineStr"/>
       <c r="E15" s="6" t="inlineStr"/>
-      <c r="F15" s="6" t="n">
-        <v>13.08058523748184</v>
-      </c>
-      <c r="G15" s="6" t="n">
-        <v>9.416693109874059</v>
-      </c>
+      <c r="F15" s="6" t="inlineStr"/>
+      <c r="G15" s="6" t="inlineStr"/>
       <c r="H15" s="6" t="inlineStr"/>
       <c r="I15" s="6" t="n">
-        <v>12.79914728958529</v>
+        <v>14.09446488609789</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>5.831935655612487</v>
-      </c>
-      <c r="K15" s="6" t="inlineStr"/>
+        <v>7.078018449416815</v>
+      </c>
+      <c r="K15" s="6" t="n">
+        <v>11.84208681259478</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -1016,7 +1016,7 @@
         <v>-0.5930854295719424</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>-0.2983296509698145</v>
+        <v>-0.2983296509698148</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>0.8002475018573899</v>
@@ -1025,7 +1025,7 @@
         <v>0.09744619874982996</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>0.7432871186369703</v>
+        <v>0.7432871186369707</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>-0.5300959570399633</v>
@@ -1045,31 +1045,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-3.733710730082172</v>
+        <v>-3.55124134513812</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-2.395165991348308</v>
+        <v>-2.384966920974539</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-2.216285274930715</v>
+        <v>-2.200797187936056</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-0.3853790546071816</v>
+        <v>-0.4259186368400055</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-1.057365266589171</v>
+        <v>-1.238747616928484</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-0.4668265256330001</v>
+        <v>-0.5692537515825156</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-1.579163538562928</v>
+        <v>-1.474481754365698</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-1.285806339470149</v>
+        <v>-1.274590670914602</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-0.8264642339452171</v>
+        <v>-0.7450991596068917</v>
       </c>
     </row>
     <row r="18">
@@ -1080,31 +1080,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>-0.7372060263868203</v>
+        <v>-0.6085073607611123</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.9261976038711444</v>
+        <v>1.018667613820188</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>1.376867396415887</v>
+        <v>1.278337935240319</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>2.1270571263601</v>
+        <v>2.150863980436362</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>1.239548291253926</v>
+        <v>1.097238479189018</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>1.869934442812784</v>
+        <v>1.899370774018511</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.3069121046391864</v>
+        <v>0.355791573785988</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.7496420292932465</v>
+        <v>0.7801588963217728</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>1.338513479171581</v>
+        <v>1.374942474927393</v>
       </c>
     </row>
     <row r="19">
@@ -1121,7 +1121,7 @@
         <v>-0.2358336429680299</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>-0.1186273762354464</v>
+        <v>-0.1186273762354466</v>
       </c>
       <c r="F19" s="6" t="n">
         <v>0.7680708519676439</v>
@@ -1130,7 +1130,7 @@
         <v>0.0935280456622135</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.7134007530707808</v>
+        <v>0.7134007530707811</v>
       </c>
       <c r="I19" s="6" t="n">
         <v>-0.302902874009695</v>
@@ -1150,31 +1150,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.9401318078027581</v>
+        <v>-0.9497281765605523</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.6718044669118181</v>
+        <v>-0.6820029690533851</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.631781044965946</v>
+        <v>-0.6370675895537179</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.3075288798829476</v>
+        <v>-0.3489876682057391</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.6758094483094903</v>
+        <v>-0.7424654113139323</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.3447547159302853</v>
+        <v>-0.426276573856713</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.6545945937830536</v>
+        <v>-0.6327431935559569</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.5474268081328693</v>
+        <v>-0.5394427861192138</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.3662421294831006</v>
+        <v>-0.3386682305105599</v>
       </c>
     </row>
     <row r="21">
@@ -1185,31 +1185,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>-0.2800489676609761</v>
+        <v>-0.2692479780370723</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.5769448151155973</v>
+        <v>0.7212699743738952</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.8746007402201473</v>
+        <v>0.8336958411667038</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>4.286965298722181</v>
+        <v>4.405610950231233</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>2.594703982408413</v>
+        <v>2.151360941866184</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>3.552510636414613</v>
+        <v>3.484204278372609</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2704644451868756</v>
+        <v>0.3105641818170199</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.6095523863940463</v>
+        <v>0.6928888269631746</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>1.069311278288682</v>
+        <v>1.090960239429921</v>
       </c>
     </row>
     <row r="22">
@@ -1239,7 +1239,7 @@
         <v>-0.5652977100715973</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>-0.9153230853380032</v>
+        <v>-0.9153230853380039</v>
       </c>
       <c r="I22" s="5" t="n">
         <v>-0.3143063000499081</v>
@@ -1248,7 +1248,7 @@
         <v>0.2674569655953335</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>0.7780436441663395</v>
+        <v>0.7780436441663402</v>
       </c>
     </row>
     <row r="23">
@@ -1259,31 +1259,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-2.382019601815505</v>
+        <v>-2.35569248435713</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-1.517783144293666</v>
+        <v>-1.795537653889081</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-0.2381301395888034</v>
+        <v>-0.3566976003679173</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-2.694013734975448</v>
+        <v>-2.913831375633014</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-2.796690149191622</v>
+        <v>-2.917135190120136</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-3.024141377549805</v>
+        <v>-3.097284567180671</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-2.022276456704036</v>
+        <v>-2.002604633725175</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-1.584606337255796</v>
+        <v>-1.514857194210123</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-0.8568824561790329</v>
+        <v>-0.8988942450399535</v>
       </c>
     </row>
     <row r="24">
@@ -1294,31 +1294,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>2.724722002421139</v>
+        <v>2.663720269581687</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>3.898156516210021</v>
+        <v>3.600258392309621</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>5.193670324660153</v>
+        <v>5.16460916695789</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>1.651310462261663</v>
+        <v>1.608696434029723</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>1.844736595474669</v>
+        <v>1.611641936078306</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.9141367244525257</v>
+        <v>0.9354657321264602</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>1.180686711835173</v>
+        <v>1.164397037558566</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>1.908789937107297</v>
+        <v>1.948283303806384</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>2.363646352601306</v>
+        <v>2.448621188849826</v>
       </c>
     </row>
     <row r="25">
@@ -1344,7 +1344,7 @@
         <v>-0.1388440432408078</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>-0.2248145636816452</v>
+        <v>-0.2248145636816454</v>
       </c>
       <c r="I25" s="6" t="n">
         <v>-0.0741873941586422</v>
@@ -1353,7 +1353,7 @@
         <v>0.06312929560732555</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>0.1836457954970332</v>
+        <v>0.1836457954970334</v>
       </c>
     </row>
     <row r="26">
@@ -1364,31 +1364,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.4186583090390429</v>
+        <v>-0.4089994856097847</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.2959567634636454</v>
+        <v>-0.3016658435935817</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.05002117304370467</v>
+        <v>-0.09924107683400149</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.5315002089837461</v>
+        <v>-0.5317499620393757</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.5337456194793047</v>
+        <v>-0.5259779212974279</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.5371928556052084</v>
+        <v>-0.5482734639924204</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.3825550722707871</v>
+        <v>-0.392302012673783</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.3101880500656797</v>
+        <v>-0.2876645386377306</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.1596393599808514</v>
+        <v>-0.1741227433720955</v>
       </c>
     </row>
     <row r="27">
@@ -1399,31 +1399,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.8848821776064425</v>
+        <v>0.8537680450174393</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>1.245813316395062</v>
+        <v>1.119003218417927</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>1.775066387962545</v>
+        <v>1.598757263835429</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.5887670459922593</v>
+        <v>0.5944260016933965</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.6339383071687439</v>
+        <v>0.5828455653773374</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.3154074442846325</v>
+        <v>0.3424914933310818</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.3654849126234342</v>
+        <v>0.3533367199667446</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.5487392002969885</v>
+        <v>0.5707596114707585</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.6872497078279685</v>
+        <v>0.756721148796601</v>
       </c>
     </row>
     <row r="28">
@@ -1444,7 +1444,7 @@
         <v>1.818100042109588</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>1.426491078405034</v>
+        <v>1.426491078405029</v>
       </c>
       <c r="F28" s="5" t="n">
         <v>-0.8648551633071516</v>
@@ -1453,7 +1453,7 @@
         <v>0.1971512277349943</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>-4.411616483587548</v>
+        <v>-4.411616483587546</v>
       </c>
       <c r="I28" s="5" t="n">
         <v>-0.2699799935865346</v>
@@ -1462,7 +1462,7 @@
         <v>0.9908813749655145</v>
       </c>
       <c r="K28" s="5" t="n">
-        <v>-1.499719735786587</v>
+        <v>-1.499719735786585</v>
       </c>
     </row>
     <row r="29">
@@ -1473,31 +1473,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-4.042821935573797</v>
+        <v>-4.175219508347433</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-2.508511079107963</v>
+        <v>-2.838467664130697</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-2.399128804214435</v>
+        <v>-2.284135619601156</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-5.563824620213508</v>
+        <v>-5.186614939954119</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-4.4265467938132</v>
+        <v>-4.247333463697767</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-8.141351554312052</v>
+        <v>-8.236937933506598</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>-3.314589959419693</v>
+        <v>-3.447120341013073</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-2.328105097923331</v>
+        <v>-2.111919497891094</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>-4.423962534777813</v>
+        <v>-4.186046636952991</v>
       </c>
     </row>
     <row r="30">
@@ -1508,31 +1508,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>4.925611516835961</v>
+        <v>4.663640469263107</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>6.734779353163857</v>
+        <v>6.034121319713208</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>5.799539661185293</v>
+        <v>5.002396583543158</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>3.543838014524706</v>
+        <v>3.581926247505423</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>4.621762752833869</v>
+        <v>4.39486806450669</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>-0.8040684337266308</v>
+        <v>-1.093486020386253</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>2.846491925835969</v>
+        <v>2.909721714274262</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>4.409178875835639</v>
+        <v>4.491555557156179</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>1.127927544934366</v>
+        <v>1.271047140060362</v>
       </c>
     </row>
     <row r="31">
@@ -1549,7 +1549,7 @@
         <v>0.1585821323583834</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>0.1244243945680767</v>
+        <v>0.1244243945680762</v>
       </c>
       <c r="F31" s="6" t="n">
         <v>-0.07036067354219903</v>
@@ -1558,7 +1558,7 @@
         <v>0.01603932515134811</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>-0.3589090062295761</v>
+        <v>-0.358909006229576</v>
       </c>
       <c r="I31" s="6" t="n">
         <v>-0.02271169759166307</v>
@@ -1567,7 +1567,7 @@
         <v>0.08335654001049096</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>-0.12616187095551</v>
+        <v>-0.1261618709555098</v>
       </c>
     </row>
     <row r="32">
@@ -1578,31 +1578,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.3092463081210439</v>
+        <v>-0.3095939077402295</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.1890236645058945</v>
+        <v>-0.2195948536746585</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.1757976197678185</v>
+        <v>-0.1716454702171839</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.3874377294134739</v>
+        <v>-0.3662728654644018</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.3050234018666391</v>
+        <v>-0.2967912872612885</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.5435438529886151</v>
+        <v>-0.5344883586702355</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>-0.2486795363189979</v>
+        <v>-0.2523530566104021</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.1745779121878761</v>
+        <v>-0.1557143133416454</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>-0.3181487942089198</v>
+        <v>-0.312308438597138</v>
       </c>
     </row>
     <row r="33">
@@ -1613,31 +1613,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.5159915536959743</v>
+        <v>0.4931635708516969</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.7100141645759157</v>
+        <v>0.6475648302136582</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.64085010190186</v>
+        <v>0.5540376057741853</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.3623211967462382</v>
+        <v>0.3860307097790395</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.4618074944165433</v>
+        <v>0.4342300282695628</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>-0.07247937134201345</v>
+        <v>-0.1147333026518578</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.270052030011156</v>
+        <v>0.276326475593081</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.4312709133647134</v>
+        <v>0.4591141994904827</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>0.114907019162838</v>
+        <v>0.1285946338085441</v>
       </c>
     </row>
     <row r="34">
@@ -1667,7 +1667,7 @@
         <v>0.6252199179018814</v>
       </c>
       <c r="H34" s="5" t="n">
-        <v>-5.280714647801227</v>
+        <v>-5.280714647801229</v>
       </c>
       <c r="I34" s="5" t="n">
         <v>6.634045182665485</v>
@@ -1676,7 +1676,7 @@
         <v>4.385156452750535</v>
       </c>
       <c r="K34" s="5" t="n">
-        <v>-1.558701863274611</v>
+        <v>-1.558701863274609</v>
       </c>
     </row>
     <row r="35">
@@ -1687,31 +1687,31 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>4.375568019435211</v>
+        <v>3.991290587899709</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>1.695595745276484</v>
+        <v>2.094108137310551</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>-2.292076703458762</v>
+        <v>-3.03753659517313</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>-3.189389438497344</v>
+        <v>-3.494518979436513</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>-4.991503469540135</v>
+        <v>-5.264292063091159</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>-10.20574215200217</v>
+        <v>-10.42842168955441</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>1.816883331142347</v>
+        <v>1.811125322846734</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>-0.01928560458602157</v>
+        <v>-0.1044457480509739</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>-5.603096552647155</v>
+        <v>-5.303757359568777</v>
       </c>
     </row>
     <row r="36">
@@ -1722,31 +1722,31 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>17.8682105960524</v>
+        <v>18.33473791413247</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>14.91270256066854</v>
+        <v>15.02784025958871</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>8.175175152643794</v>
+        <v>7.893905267979809</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>9.599997145045794</v>
+        <v>9.252330585821808</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>6.179190202292392</v>
+        <v>6.575469239215343</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>-0.3674345844026345</v>
+        <v>-0.7810432222695257</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>11.22375643386692</v>
+        <v>11.20142365893972</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>8.511541407139548</v>
+        <v>8.814835487925102</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>1.998046071685687</v>
+        <v>2.069857582764057</v>
       </c>
     </row>
     <row r="37">
@@ -1772,7 +1772,7 @@
         <v>0.02805041684902994</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>-0.2369186311733096</v>
+        <v>-0.2369186311733097</v>
       </c>
       <c r="I37" s="6" t="n">
         <v>0.3155944808273746</v>
@@ -1781,7 +1781,7 @@
         <v>0.2086104534935604</v>
       </c>
       <c r="K37" s="6" t="n">
-        <v>-0.07415049065239639</v>
+        <v>-0.07415049065239626</v>
       </c>
     </row>
     <row r="38">
@@ -1792,31 +1792,31 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>0.1821106591315515</v>
+        <v>0.1821083129087229</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>0.07157471005186632</v>
+        <v>0.09361638832873469</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>-0.104982488545828</v>
+        <v>-0.1405629728643759</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>-0.128599563834284</v>
+        <v>-0.1373298000282295</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>-0.2147719677584656</v>
+        <v>-0.2161748296190681</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>-0.3900066703924423</v>
+        <v>-0.3985713959235573</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.07909246916456271</v>
+        <v>0.07494651077548896</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>1.466991905881863e-05</v>
+        <v>-0.005373997794270113</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>-0.2380407198757334</v>
+        <v>-0.2222334488932822</v>
       </c>
     </row>
     <row r="39">
@@ -1827,31 +1827,31 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>1.070354997273966</v>
+        <v>1.07542457508865</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>0.890329615944276</v>
+        <v>0.9200743917018404</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>0.5214409137751853</v>
+        <v>0.4887140191983328</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>0.4789280723608784</v>
+        <v>0.5010944175401305</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>0.32170322473153</v>
+        <v>0.3393591309155423</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>-0.01357659035224599</v>
+        <v>-0.03776549194726214</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.595446084958754</v>
+        <v>0.5917215979469345</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>0.4398004637484864</v>
+        <v>0.4610373844733398</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>0.1073496692856346</v>
+        <v>0.1191861742819614</v>
       </c>
     </row>
     <row r="40">
@@ -1881,7 +1881,7 @@
         <v>6.839371222854767</v>
       </c>
       <c r="H40" s="5" t="n">
-        <v>7.191120102930965</v>
+        <v>7.19112010293097</v>
       </c>
       <c r="I40" s="5" t="n">
         <v>9.091988826862682</v>
@@ -1890,7 +1890,7 @@
         <v>9.692829689935682</v>
       </c>
       <c r="K40" s="5" t="n">
-        <v>8.102140757036178</v>
+        <v>8.102140757036183</v>
       </c>
     </row>
     <row r="41">
@@ -1901,31 +1901,31 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>0.540109909665744</v>
+        <v>0.1625810852244425</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>6.493246371838842</v>
+        <v>6.505964608492771</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>2.80312736415609</v>
+        <v>2.172314111123206</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>2.5564398286799</v>
+        <v>3.25915422208913</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>-1.018673257091953</v>
+        <v>-0.6658661143141296</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>1.656674707644739</v>
+        <v>1.603826597219448</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>4.140761926066643</v>
+        <v>3.737519972758591</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>4.175837082557148</v>
+        <v>4.168696709399552</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>3.404117717853315</v>
+        <v>3.461089081784436</v>
       </c>
     </row>
     <row r="42">
@@ -1936,31 +1936,31 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>16.36056966506639</v>
+        <v>16.0193138865139</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>22.76930441613276</v>
+        <v>21.63510797252158</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>16.95673187978895</v>
+        <v>15.8956970144085</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>16.47683238843586</v>
+        <v>16.5226632489484</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>13.42367949326219</v>
+        <v>13.42322285759114</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>12.24993491437806</v>
+        <v>12.79251344197452</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>14.4107993434709</v>
+        <v>14.2370300828748</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>14.49489019569758</v>
+        <v>14.96308360390798</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>12.19623481555457</v>
+        <v>12.55875466191115</v>
       </c>
     </row>
     <row r="43">
@@ -1986,7 +1986,7 @@
         <v>0.3173542643355526</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.3336757949894834</v>
+        <v>0.3336757949894837</v>
       </c>
       <c r="I43" s="6" t="n">
         <v>0.4326630949171907</v>
@@ -1995,7 +1995,7 @@
         <v>0.4612554823827155</v>
       </c>
       <c r="K43" s="6" t="n">
-        <v>0.3855589092935131</v>
+        <v>0.3855589092935133</v>
       </c>
     </row>
     <row r="44">
@@ -2006,31 +2006,31 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>0.00148031501139068</v>
+        <v>0.005482395156677367</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>0.2693494807208651</v>
+        <v>0.2564023090463249</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>0.114633545385335</v>
+        <v>0.07560080420274258</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>0.09501870276791929</v>
+        <v>0.1211397197017706</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>-0.04334488802482685</v>
+        <v>-0.02599256150387225</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.05768358967136539</v>
+        <v>0.05827010329260003</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.1697651570826438</v>
+        <v>0.1492679956402862</v>
       </c>
       <c r="J44" s="6" t="n">
-        <v>0.1794300692583235</v>
+        <v>0.1657949433968307</v>
       </c>
       <c r="K44" s="6" t="n">
-        <v>0.1430264726450475</v>
+        <v>0.142521600961098</v>
       </c>
     </row>
     <row r="45">
@@ -2041,31 +2041,31 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>1.003676134659176</v>
+        <v>0.9511775049007317</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>1.469203705807462</v>
+        <v>1.325886010958525</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>1.09501529774859</v>
+        <v>0.9790708908461948</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>0.90774622867515</v>
+        <v>0.9108228941166658</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>0.7148814789432149</v>
+        <v>0.7492224814886838</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>0.6747519775379809</v>
+        <v>0.7385195217006031</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.7866276419386083</v>
+        <v>0.7589268543409561</v>
       </c>
       <c r="J45" s="6" t="n">
-        <v>0.7955622510897453</v>
+        <v>0.8189886470911567</v>
       </c>
       <c r="K45" s="6" t="n">
-        <v>0.6784905915803406</v>
+        <v>0.6920150119471926</v>
       </c>
     </row>
     <row r="46">
@@ -2095,7 +2095,7 @@
         <v>1.600010586562366</v>
       </c>
       <c r="H46" s="5" t="n">
-        <v>1.037145271065479</v>
+        <v>1.037145271065477</v>
       </c>
       <c r="I46" s="5" t="n">
         <v>1.851824315046574</v>
@@ -2104,7 +2104,7 @@
         <v>2.342393501092925</v>
       </c>
       <c r="K46" s="5" t="n">
-        <v>2.313462686277222</v>
+        <v>2.313462686277219</v>
       </c>
     </row>
     <row r="47">
@@ -2115,31 +2115,31 @@
         </is>
       </c>
       <c r="C47" s="5" t="n">
-        <v>0.6346959897826815</v>
+        <v>0.6440121690937087</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>1.84247453584475</v>
+        <v>1.849561866638437</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>2.479261638277217</v>
+        <v>2.46993381368183</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>0.5269813037839912</v>
+        <v>0.6234248437499652</v>
       </c>
       <c r="G47" s="5" t="n">
-        <v>0.2262735100247774</v>
+        <v>0.3503233556986473</v>
       </c>
       <c r="H47" s="5" t="n">
-        <v>-0.1684302578259277</v>
+        <v>-0.09592007756880366</v>
       </c>
       <c r="I47" s="5" t="n">
-        <v>0.9438654975031537</v>
+        <v>0.9691309039613875</v>
       </c>
       <c r="J47" s="5" t="n">
-        <v>1.452612509181451</v>
+        <v>1.441803923122271</v>
       </c>
       <c r="K47" s="5" t="n">
-        <v>1.514666467394973</v>
+        <v>1.449255546886718</v>
       </c>
     </row>
     <row r="48">
@@ -2150,31 +2150,31 @@
         </is>
       </c>
       <c r="C48" s="5" t="n">
-        <v>3.05239284392564</v>
+        <v>3.102450959175874</v>
       </c>
       <c r="D48" s="5" t="n">
-        <v>4.284196642613304</v>
+        <v>4.272014007756864</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>4.819350179986999</v>
+        <v>4.803946558243284</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>3.057369716342327</v>
+        <v>3.221437021615489</v>
       </c>
       <c r="G48" s="5" t="n">
-        <v>2.913608384281827</v>
+        <v>3.008817944876721</v>
       </c>
       <c r="H48" s="5" t="n">
-        <v>2.041427378893651</v>
+        <v>2.201550703369332</v>
       </c>
       <c r="I48" s="5" t="n">
-        <v>2.689664846293482</v>
+        <v>2.778405122019749</v>
       </c>
       <c r="J48" s="5" t="n">
-        <v>3.221228449739606</v>
+        <v>3.305905843296692</v>
       </c>
       <c r="K48" s="5" t="n">
-        <v>3.171218180166267</v>
+        <v>3.064980387989733</v>
       </c>
     </row>
     <row r="49">
@@ -2200,7 +2200,7 @@
         <v>0.235846534415988</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>0.1528784371310091</v>
+        <v>0.1528784371310089</v>
       </c>
       <c r="I49" s="6" t="n">
         <v>0.2971979077441873</v>
@@ -2209,7 +2209,7 @@
         <v>0.3759289917417951</v>
       </c>
       <c r="K49" s="6" t="n">
-        <v>0.3712859067781196</v>
+        <v>0.3712859067781191</v>
       </c>
     </row>
     <row r="50">
@@ -2220,31 +2220,31 @@
         </is>
       </c>
       <c r="C50" s="6" t="n">
-        <v>0.1063822967042156</v>
+        <v>0.09812053102309215</v>
       </c>
       <c r="D50" s="6" t="n">
-        <v>0.2889217717488108</v>
+        <v>0.2940200111323942</v>
       </c>
       <c r="E50" s="6" t="n">
-        <v>0.3887547857002217</v>
+        <v>0.3892833255508732</v>
       </c>
       <c r="F50" s="6" t="n">
-        <v>0.07104775063655817</v>
+        <v>0.08370692528417392</v>
       </c>
       <c r="G50" s="6" t="n">
-        <v>0.03239918004900396</v>
+        <v>0.04468052808114682</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>-0.0239570365269187</v>
+        <v>-0.01348261651801903</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.1429946596117509</v>
+        <v>0.149772664213655</v>
       </c>
       <c r="J50" s="6" t="n">
-        <v>0.2156608753368496</v>
+        <v>0.2134611706941733</v>
       </c>
       <c r="K50" s="6" t="n">
-        <v>0.2251365778862977</v>
+        <v>0.2086171616882716</v>
       </c>
     </row>
     <row r="51">
@@ -2255,31 +2255,31 @@
         </is>
       </c>
       <c r="C51" s="6" t="n">
-        <v>0.6173338799121382</v>
+        <v>0.5958768254975338</v>
       </c>
       <c r="D51" s="6" t="n">
-        <v>0.825833330553661</v>
+        <v>0.838443532069176</v>
       </c>
       <c r="E51" s="6" t="n">
-        <v>0.9339683701810552</v>
+        <v>0.9224201214654291</v>
       </c>
       <c r="F51" s="6" t="n">
-        <v>0.5057983026005841</v>
+        <v>0.5205773214692685</v>
       </c>
       <c r="G51" s="6" t="n">
-        <v>0.4717665143633442</v>
+        <v>0.496925963057538</v>
       </c>
       <c r="H51" s="6" t="n">
-        <v>0.3310521560570366</v>
+        <v>0.3580490749583012</v>
       </c>
       <c r="I51" s="6" t="n">
-        <v>0.461470708885237</v>
+        <v>0.4818651547436584</v>
       </c>
       <c r="J51" s="6" t="n">
-        <v>0.5478788582766675</v>
+        <v>0.5595150828873962</v>
       </c>
       <c r="K51" s="6" t="n">
-        <v>0.5497068792695342</v>
+        <v>0.5334627439366735</v>
       </c>
     </row>
     <row r="52">
